--- a/biology/Médecine/Georges_Saint-Paul/Georges_Saint-Paul.xlsx
+++ b/biology/Médecine/Georges_Saint-Paul/Georges_Saint-Paul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Saint-Paul (17 avril 1870 à Montigny-lès-Metz - 7 avril 1937 à Genillé) est un médecin militaire et chercheur français. Médecin général, il est l'auteur d'une œuvre à la fois littéraire et scientifique sous les pseudonymes de : G. Espé de Metz et Dr Laupts.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Saint-Paul naît à Montigny-lès-Metz, juste avant l’annexion de la Lorraine par l'Empire allemand. Ses parents optent pour la nationalité française. Georges Saint-Paul suit ses études en France et soutient un doctorat en 1892. Médecin-major en Algérie, puis en Tunisie, il revient ensuite en France, à Tours, puis à Nancy. En 1926, il est nommé directeur du Service de santé des armées, à Nancy, avec le grade de général.
-Georges Saint-Paul publie plusieurs ouvrages scientifiques, notamment sur ce que l'on appelle dans un premier temps l'« inversion sexuelle » puis sur ce qu'il qualifiera lui-même d'« homosexualité », sous le pseudonyme de Dr. Laupts. Il publie notamment une version censurée du texte connu comme le « Roman d’un inverti », série de lettres envoyées à Émile Zola en 1889 par un aristocrate italien anonyme de 23 ans, qui raconte ses amours pour les hommes au romancier. Saint-Paul publie une version caviardée des lettres en 1894-1895 dans les Archives d’anthropologie criminelle et dans un livre en 1896 Tares et poisons. Perversion et perversité sexuelles[1], avec une préface par Zola[2]. En septembre 1896, l’auteur des lettres à Zola s’adresse directement au médecin et réagit à la publication de ses lettres à Zola. Des parties de cette lettre à Saint-Paul sont publiées par le médecin en 1910 dans L’Homosexualité et les Types homosexuels[3] et en 1930 Invertis et homosexuels[4]. Ce n’est qu’en 2017 que les lettres à Zola et celle à Saint-Paul sont publiées dans leur entièreté[5].
+Georges Saint-Paul publie plusieurs ouvrages scientifiques, notamment sur ce que l'on appelle dans un premier temps l'« inversion sexuelle » puis sur ce qu'il qualifiera lui-même d'« homosexualité », sous le pseudonyme de Dr. Laupts. Il publie notamment une version censurée du texte connu comme le « Roman d’un inverti », série de lettres envoyées à Émile Zola en 1889 par un aristocrate italien anonyme de 23 ans, qui raconte ses amours pour les hommes au romancier. Saint-Paul publie une version caviardée des lettres en 1894-1895 dans les Archives d’anthropologie criminelle et dans un livre en 1896 Tares et poisons. Perversion et perversité sexuelles, avec une préface par Zola. En septembre 1896, l’auteur des lettres à Zola s’adresse directement au médecin et réagit à la publication de ses lettres à Zola. Des parties de cette lettre à Saint-Paul sont publiées par le médecin en 1910 dans L’Homosexualité et les Types homosexuels et en 1930 Invertis et homosexuels. Ce n’est qu’en 2017 que les lettres à Zola et celle à Saint-Paul sont publiées dans leur entièreté.
 Au cours de sa carrière, il noue une relation épistolaire avec le chercheur allemand Paul Näcke. En 1908, il prend ses distances avec Näcke à propos de la thèse que défend ce dernier sur la « dégénérescence de la France », à travers la revue Archives d’anthropologie criminelle dirigée par Alexandre Lacassagne .
-Il publie en outre des œuvres plus littéraires, dramatiques ou poétiques, sous le pseudonyme de G. Espé de Metz. Sous le même alias il contribua à la discussion du colonialisme dans la presse, notamment autour de l'Algérie. Se définissant volontiers comme un agitateur d'idées, on lui doit plusieurs néologismes, dont le terme d'« endophasie », qu'il associait à l'introspection[6].
+Il publie en outre des œuvres plus littéraires, dramatiques ou poétiques, sous le pseudonyme de G. Espé de Metz. Sous le même alias il contribua à la discussion du colonialisme dans la presse, notamment autour de l'Algérie. Se définissant volontiers comme un agitateur d'idées, on lui doit plusieurs néologismes, dont le terme d'« endophasie », qu'il associait à l'introspection.
 En 1931, il crée l'Association des lieux de Genève, pour promouvoir des zones destinées à accueillir les populations civiles en cas de conflit armé, anticipant les principes des conventions de Genève de 1949.
 Georges Saint-Paul mourut le 7 avril 1937, au château de Rassay, près de Genillé en Indre-et-Loire.
 </t>
@@ -547,9 +561,11 @@
           <t>Ses travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Saint-Paul, sous l'impulsion de Lacassagne, mena des travaux sur le langage intérieur[7]. Défenseur d'une psychologie scientifique, il entendait démocratiser la méthode d'introspection en l'appliquant à un large échantillon d'individus. Son programme s'appuie sur ce qu'il appelle la « cérébrologie », ou science du cerveau, une méthode scientifico-médicale permettant de passer de la psychologie individuelle à une forme de psychologie générale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Saint-Paul, sous l'impulsion de Lacassagne, mena des travaux sur le langage intérieur. Défenseur d'une psychologie scientifique, il entendait démocratiser la méthode d'introspection en l'appliquant à un large échantillon d'individus. Son programme s'appuie sur ce qu'il appelle la « cérébrologie », ou science du cerveau, une méthode scientifico-médicale permettant de passer de la psychologie individuelle à une forme de psychologie générale.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous son propre nom
 Essais sur le langage intérieur, Lyon, Stock, 1892.
